--- a/CashFlow/PCAR_cashflow.xlsx
+++ b/CashFlow/PCAR_cashflow.xlsx
@@ -74,9 +74,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4948000000.0</v>
+        <v>1585800000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4753000000.0</v>
+        <v>-48200000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3690800000.0</v>
+        <v>171700000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2579300000.0</v>
+        <v>157800000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1387400000.0</v>
+        <v>-51600000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>24600000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>15156000000.0</v>
+        <v>5813700000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>13122000000.0</v>
+        <v>-53600000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10896100000.0</v>
+        <v>-352900000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>6984800000.0</v>
+        <v>-658400000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3356100000.0</v>
+        <v>-477200000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-27600000.0</v>
